--- a/4-creating-a-data-frame/creating-a-data-frame-start.xlsx
+++ b/4-creating-a-data-frame/creating-a-data-frame-start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maqimzmnjbt5wavnbicv98tlhog-my.sharepoint.com/personal/george_stringfestanalytics_com/Documents/Stringfest assets/OReilly/oreilly-shortcuts/python-in-excel/4-creating-a-data-frame/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\oreilly-shortcuts-python-in-excel\4-creating-a-data-frame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{2C4C995B-B03B-4B0E-B74A-0457B0C2AFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6EA6B96-CF41-4675-A27F-E4592FA6C429}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686BF69B-9EB3-4863-B715-8BD01AF8D855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{CD2BD49E-080C-4D0F-BFAD-3D7A6304BBFC}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{CD2BD49E-080C-4D0F-BFAD-3D7A6304BBFC}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -47,53 +47,6 @@
 </connections>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="7"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-  <valueMetadata count="2">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-    <bk>
-      <rc t="2" v="1"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
@@ -111,22 +64,11 @@
 </code>
     </initialization>
   </environmentDefinition>
-  <pythonScripts>
-    <pythonScript>
-      <code>land_area = xl(%P2%, headers=True)</code>
-    </pythonScript>
-    <pythonScript>
-      <code>land_area_df = xl(%P2%, headers=True)</code>
-    </pythonScript>
-    <pythonScript>
-      <code>land_area_df = xl(%P2%)</code>
-    </pythonScript>
-  </pythonScripts>
 </python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Alaska</t>
   </si>
@@ -168,21 +110,6 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/stringfestdata/training-assets/master/datasets/largest-us-states.csv</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>Plain range</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Power Query</t>
   </si>
 </sst>
 </file>
@@ -225,11 +152,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -240,285 +163,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
-  <a r="6" c="4">
-    <v t="s"/>
-    <v t="s">state</v>
-    <v t="s">land_area</v>
-    <v t="s">capital</v>
-    <v>0</v>
-    <v t="s">Alaska</v>
-    <v>570640.94999999995</v>
-    <v t="s">Juneau</v>
-    <v>1</v>
-    <v t="s">Texas</v>
-    <v>261231.71</v>
-    <v t="s">Austin</v>
-    <v>2</v>
-    <v t="s">California</v>
-    <v>155779.22</v>
-    <v t="s">Sacramento</v>
-    <v>3</v>
-    <v t="s">Montana</v>
-    <v>145545.79999999999</v>
-    <v t="s">Helena</v>
-    <v>4</v>
-    <v t="s">New Mexico</v>
-    <v>121298.15</v>
-    <v t="s">Santa Fe</v>
-  </a>
-  <a r="7" c="5">
-    <v t="s"/>
-    <v t="s">state</v>
-    <v t="s">land_area</v>
-    <v t="s">capital</v>
-    <v t="s">population</v>
-    <v>0</v>
-    <v t="s">Alaska</v>
-    <v>570640.94999999995</v>
-    <v t="s">Juneau</v>
-    <v t="r">3</v>
-    <v>1</v>
-    <v t="s">Texas</v>
-    <v>261231.71</v>
-    <v t="s">Austin</v>
-    <v t="r">3</v>
-    <v>2</v>
-    <v t="s">California</v>
-    <v>155779.22</v>
-    <v t="s">Sacramento</v>
-    <v t="r">3</v>
-    <v>3</v>
-    <v t="s">Montana</v>
-    <v>145545.79999999999</v>
-    <v t="s">Helena</v>
-    <v t="r">3</v>
-    <v>4</v>
-    <v t="s">New Mexico</v>
-    <v>121298.15</v>
-    <v t="s">Santa Fe</v>
-    <v t="r">3</v>
-    <v>5</v>
-    <v t="s">Utah</v>
-    <v t="r">4</v>
-    <v t="r">3</v>
-    <v t="r">3</v>
-  </a>
-</arrayData>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
-  <rv s="0">
-    <v>0</v>
-  </rv>
-  <rv s="1">
-    <v>DataFrame</v>
-    <v>1</v>
-    <v>0</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
-    <v>DataFrame</v>
-    <v xml:space="preserve">        state  land_area     capital
-0      Alaska  570640.95      Juneau
-1       Texas  261231.71      Austin
-2  California  155779.22  Sacramento
-3     Montana  145545.80      Helena
-4  New Mexico  121298.15    Santa Fe</v>
-    <v>1</v>
-    <v>2</v>
-  </rv>
-  <rv s="3">
-    <fb>0</fb>
-    <v>5</v>
-  </rv>
-  <rv s="3">
-    <fb>0</fb>
-    <v>6</v>
-  </rv>
-  <rv s="0">
-    <v>1</v>
-  </rv>
-  <rv s="1">
-    <v>DataFrame</v>
-    <v>4</v>
-    <v>5</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
-    <v>DataFrame</v>
-    <v xml:space="preserve">        state  land_area     capital population
-0      Alaska  570640.95      Juneau       None
-1       Texas  261231.71      Austin       None
-2  California  155779.22  Sacramento       None
-3     Montana  145545.80      Helena       None
-4  New Mexic...</v>
-    <v>6</v>
-    <v>2</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
-  <s t="_array">
-    <k n="array" t="a"/>
-  </s>
-  <s t="_entity">
-    <k n="_DisplayString" t="s"/>
-    <k n="_ViewInfo" t="spb"/>
-    <k n="arrayPreview" t="r"/>
-  </s>
-  <s t="_python">
-    <k n="Python_type" t="s"/>
-    <k n="Python_typeName" t="s"/>
-    <k n="Python_str" t="s"/>
-    <k n="preview" t="r"/>
-    <k n="provider" t="spb"/>
-  </s>
-  <s t="_formattednumber">
-    <k n="_Format" t="spb"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
-<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbData count="7">
-    <spb s="0">
-      <v>5</v>
-      <v>3</v>
-      <v>DataFrame</v>
-      <v>arrayPreview</v>
-      <v>1</v>
-    </spb>
-    <spb s="1">
-      <v>0</v>
-    </spb>
-    <spb s="2">
-      <v>https://www.anaconda.com/excel</v>
-      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
-      <v>Python provided by Anaconda</v>
-    </spb>
-    <spb s="0">
-      <v>6</v>
-      <v>4</v>
-      <v>DataFrame</v>
-      <v>arrayPreview</v>
-      <v>1</v>
-    </spb>
-    <spb s="1">
-      <v>3</v>
-    </spb>
-    <spb s="3">
-      <v>1</v>
-    </spb>
-    <spb s="3">
-      <v>2</v>
-    </spb>
-  </spbData>
-</supportingPropertyBags>
-</file>
-
-<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
-  <s>
-    <k n="drw" t="i"/>
-    <k n="dcol" t="i"/>
-    <k n="name" t="s"/>
-    <k n="array" t="s"/>
-    <k n="headers" t="b"/>
-  </s>
-  <s>
-    <k n="ArrayCardInfo" t="spb"/>
-  </s>
-  <s>
-    <k n="url" t="s"/>
-    <k n="logoUrl" t="s"/>
-    <k n="description" t="s"/>
-  </s>
-  <s>
-    <k n="_Self" t="i"/>
-  </s>
-</spbStructures>
-</file>
-
-<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
-<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <dxfs count="1">
-    <x:dxf>
-      <x:numFmt numFmtId="0" formatCode="General"/>
-    </x:dxf>
-  </dxfs>
-  <richProperties>
-    <rPr n="NumberFormat" t="s"/>
-  </richProperties>
-  <richStyles>
-    <rSty dxfid="0">
-      <rpv i="0">0;-0;"None"</rpv>
-    </rSty>
-    <rSty dxfid="0">
-      <rpv i="0">0;-0;"nan"</rpv>
-    </rSty>
-  </richStyles>
-</richStyleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBEC521F-6A62-45FC-8455-585667766B61}" name="land_area" displayName="land_area" ref="A8:D14" totalsRowShown="0">
-  <autoFilter ref="A8:D14" xr:uid="{EBEC521F-6A62-45FC-8455-585667766B61}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B0A4700F-C738-4F42-996A-F78A2F8B4C3C}" name="state"/>
-    <tableColumn id="2" xr3:uid="{0DFA3892-0376-4640-8B45-2D1E1A238527}" name="land_area" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{0D504FAA-AF2B-45A7-9A1C-953779101F51}" name="capital"/>
-    <tableColumn id="4" xr3:uid="{624C661B-37E5-4233-B55D-103D036D610F}" name="population"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -838,21 +482,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE05153-53ED-47F7-BF40-45D218DD470B}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.35" x14ac:dyDescent="0.9"/>
+  <sheetFormatPr defaultRowHeight="26.4" x14ac:dyDescent="1"/>
   <cols>
-    <col min="1" max="1" width="10.06640625" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.23046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.23046875" customWidth="1"/>
+    <col min="1" max="1" width="10.05859375" customWidth="1"/>
+    <col min="2" max="2" width="9.64453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:3" x14ac:dyDescent="1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -862,12 +504,8 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="e" cm="1" vm="1">
-        <f t="array" ref="E1">_xlfn._xlws.PY(0,1,A1:C6)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.9">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -878,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.9">
+    <row r="3" spans="1:3" x14ac:dyDescent="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -889,7 +527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:3" x14ac:dyDescent="1">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -900,7 +538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:3" x14ac:dyDescent="1">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -911,7 +549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:3" x14ac:dyDescent="1">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -922,130 +560,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.9">
+    <row r="7" spans="1:3" x14ac:dyDescent="1">
       <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.9">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="e" cm="1" vm="2">
-        <f t="array" ref="E8">_xlfn._xlws.PY(1,1,land_area[#All])</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>570640.94999999995</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.9">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>261231.71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.9">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
-        <v>155779.22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.9">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1">
-        <v>145545.79999999999</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.9">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1">
-        <v>121298.15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.9">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876133B9-A48D-4B9A-BF5D-EC3DB3563CDA}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.35" x14ac:dyDescent="0.9"/>
+  <sheetFormatPr defaultRowHeight="26.4" x14ac:dyDescent="1"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:1" x14ac:dyDescent="1">
       <c r="A1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.9">
-      <c r="A3" t="e" cm="1" vm="1">
-        <f t="array" ref="A3">_xlfn._xlws.PY(2,1,_xlfn.PQSOURCE("6562d16f-8574-4200-8e24-2319de3e6854"))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.9">
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.9">
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.9">
-      <c r="D6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
